--- a/data/trans_bre/P25_11-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_11-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,21</t>
+          <t>8,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,21</t>
+          <t>10,02</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,01</t>
+          <t>7,53</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>179,42%</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>55,29%</t>
+          <t>69,59%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>128,32%</t>
+          <t>91,02%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>67,46%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,16%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,11; 21,4</t>
+          <t>-7,77; 22,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 14,17</t>
+          <t>-5,88; 24,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 15,96</t>
+          <t>-8,3; 22,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>28,49; 600,82</t>
+          <t>-18,21; 18,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-30,5; 286,74</t>
+          <t>-47,53; 383,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,25; 510,3</t>
+          <t>-37,87; 587,01</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-45,51; 527,18</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-66,85; 260,15</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,54</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,75</t>
+          <t>7,16</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,66</t>
+          <t>7,53</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>146,43%</t>
+          <t>9,56</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>211,72%</t>
+          <t>108,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>107,54%</t>
+          <t>211,87%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>182,24%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>149,34%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 9,87</t>
+          <t>0,07; 10,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,2; 11,24</t>
+          <t>2,37; 12,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 11,16</t>
+          <t>2,45; 12,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 446,07</t>
+          <t>3,22; 16,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>53,97; 581,23</t>
+          <t>-11,31; 403,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,04; 322,03</t>
+          <t>24,67; 927,43</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>22,93; 616,93</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>21,03; 451,1</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,73</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>44,29%</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>279,66%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,59%</t>
+          <t>71,47%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>32,97%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4,39%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 5,59</t>
+          <t>-5,08; 5,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,6; 12,11</t>
+          <t>-2,01; 7,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 7,22</t>
+          <t>-4,23; 5,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-37,21; 317,86</t>
+          <t>-5,6; 4,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>51,18; 992,64</t>
+          <t>-70,03; 348,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,49; 417,17</t>
+          <t>-42,5; 466,0</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-65,15; 337,62</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-63,04; 187,64</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,97</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,34</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>124,25%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>173,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>109,89%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,25; 8,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,26; 10,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,44; 8,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,95; 257,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>79,99; 366,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,62; 238,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3,63</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,75</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5,09</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4,59</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>66,29%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>124,96%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>98,81%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>57,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,41; 7,12</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2,17; 9,28</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,73; 8,79</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 9,12</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-6,79; 192,03</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>33,38; 307,25</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>9,13; 237,94</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-4,74; 155,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25_11-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_11-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>8,28</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>10,02</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7,53</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,03</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>69,59%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>91,02%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>67,46%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-0,16%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>9.589467016964413</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>9.661961576291029</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>5.745406671293479</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.025186901716937</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.8769215011731659</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.8532066880049793</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.4903381999084592</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.06142779050856594</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,77; 22,45</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,88; 24,94</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-8,3; 22,77</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-18,21; 18,65</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-47,53; 383,75</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-37,87; 587,01</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-45,51; 527,18</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-66,85; 260,15</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.46603019421153</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-6.244398188744529</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-10.0903745078762</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-16.90496589376884</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.4257155864807401</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.3987283691467501</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.5227019766278906</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.6329571720275284</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>23.37181142847857</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>25.16729150940752</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>20.52045474223692</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>20.35246431176884</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>4.215419781834042</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>5.425839455155078</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>4.587939525242957</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.862639055958061</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>4,92</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,16</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>7,53</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>9,56</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>108,92%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>211,87%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>182,24%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>149,34%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 10,22</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,37; 12,75</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,45; 12,77</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>3,22; 16,18</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-11,31; 403,14</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>24,67; 927,43</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>22,93; 616,93</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>21,03; 451,1</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>6.130674878232034</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>7.837440087847633</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>7.43412088472018</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>9.762247624152343</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>1.377716232495893</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>2.429828936642102</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.824210591681815</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.605350642691181</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,73</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,36</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>21,19%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>71,47%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>32,97%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>4,39%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.6312114656169621</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>2.97786039018254</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>2.338296177995069</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>3.933186633611644</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.03749456011229603</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.3435231802169896</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.2542874057149456</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.3095349859118058</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,08; 5,15</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,01; 7,62</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,23; 5,62</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-5,6; 4,99</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-70,03; 348,47</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-42,5; 466,0</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-65,15; 337,62</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-63,04; 187,64</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>13.0194591680699</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>13.33177688107904</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>12.64735816949797</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>16.59625886396123</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>5.194955046604874</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>10.54238380819334</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>6.181753612574635</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>4.865818030339088</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.8815787617416928</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.314993265989597</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.8668312898232479</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.07503786613507132</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.1545822373041862</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.5106359344845594</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.1975938852649126</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.01300591321396784</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-11.41752201759151</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.671264615189896</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-5.61032414598195</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-5.775917485098884</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.9258759258182254</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.6100753795346896</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.7188605982826036</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.6540907852475033</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.929595917472039</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.024361916569136</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.937883526552225</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>4.46939683253242</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>2.147455892164347</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>3.702882338896289</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>2.933639167283468</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.794059937446495</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,63</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>5,75</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>5,09</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>4,59</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>66,29%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>124,96%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>98,81%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>57,84%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,41; 7,12</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>2,17; 9,28</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,73; 8,79</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 9,12</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-6,79; 192,03</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>33,38; 307,25</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>9,13; 237,94</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-4,74; 155,85</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>3.726360470143341</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>6.01010790056025</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>4.751062144553366</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>4.862545092264109</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.6384627688796309</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.259555636597567</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.9058524011548118</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.6307437060501594</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.9871547293699885</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.835083509103449</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.4874992697630182</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.35549862364725</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.1542082791528974</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.2650717592771233</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.04240121427967812</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.007497308977172693</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.881995025652246</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>9.695793143475633</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>8.405351035964015</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>9.643687448009596</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.977619828312072</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>3.225382051410065</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.325348547393711</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.65049375034157</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
